--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Documents\PythonProjects\ccp_reportcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\ccp_reportcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>[별지 제35호서식]</t>
   </si>
@@ -93,54 +93,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">˚  ´  ˝   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="바탕체"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">˚  ´  ˝   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="바탕체"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">˚  ´  ˝   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0"/>
-        <rFont val="바탕체"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>년   월   일</t>
@@ -207,6 +159,21 @@
   <si>
     <t>210㎜×297㎜(보존용지(1종) 70g/㎡)</t>
   </si>
+  <si>
+    <t>˚  ´  ˝</t>
+  </si>
+  <si>
+    <t>˚  ´  ˝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>˚  ´  ˝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>˚  ´  ˝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +183,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,13 +243,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="바탕체"/>
@@ -744,13 +704,13 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -759,7 +719,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -789,13 +749,13 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,15 +776,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -849,61 +800,61 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,6 +884,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,6 +912,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,10 +1205,10 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="AL13" sqref="AL13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
@@ -1262,129 +1222,129 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-    </row>
-    <row r="2" spans="1:32" ht="35.1" customHeight="1">
-      <c r="A2" s="69" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+    </row>
+    <row r="2" spans="1:32" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-    </row>
-    <row r="3" spans="1:32" ht="21.95" customHeight="1">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+    </row>
+    <row r="3" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="75" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="59"/>
-    </row>
-    <row r="4" spans="1:32" ht="21.95" customHeight="1">
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="77"/>
+    </row>
+    <row r="4" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -1394,12 +1354,12 @@
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
       <c r="R4" s="57"/>
       <c r="S4" s="57"/>
       <c r="T4" s="57"/>
@@ -1414,22 +1374,22 @@
       <c r="AC4" s="57"/>
       <c r="AD4" s="57"/>
       <c r="AE4" s="57"/>
-      <c r="AF4" s="60"/>
-    </row>
-    <row r="5" spans="1:32" ht="21.95" customHeight="1">
+      <c r="AF4" s="78"/>
+    </row>
+    <row r="5" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="29" t="s">
         <v>10</v>
       </c>
@@ -1446,15 +1406,15 @@
       <c r="W5" s="29"/>
       <c r="X5" s="29"/>
       <c r="Y5" s="29"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="65"/>
-      <c r="AB5" s="65"/>
-      <c r="AC5" s="65"/>
-      <c r="AD5" s="65"/>
-      <c r="AE5" s="65"/>
-      <c r="AF5" s="66"/>
-    </row>
-    <row r="6" spans="1:32" ht="21.95" customHeight="1">
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="63"/>
+    </row>
+    <row r="6" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
@@ -1494,7 +1454,7 @@
       <c r="AE6" s="29"/>
       <c r="AF6" s="30"/>
     </row>
-    <row r="7" spans="1:32" ht="21.95" customHeight="1">
+    <row r="7" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -1538,8 +1498,8 @@
       <c r="AE7" s="29"/>
       <c r="AF7" s="30"/>
     </row>
-    <row r="8" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -1555,236 +1515,236 @@
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
-      <c r="K8" s="48" t="s">
+      <c r="K8" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="47"/>
+    </row>
+    <row r="9" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="54"/>
+    </row>
+    <row r="10" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="47"/>
+    </row>
+    <row r="11" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="54"/>
+    </row>
+    <row r="12" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="48" t="s">
+      <c r="B12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="47"/>
+    </row>
+    <row r="13" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="54"/>
+    </row>
+    <row r="14" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="49"/>
-      <c r="AC8" s="49"/>
-      <c r="AD8" s="49"/>
-      <c r="AE8" s="49"/>
-      <c r="AF8" s="51"/>
-    </row>
-    <row r="9" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="33"/>
-    </row>
-    <row r="10" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="48" t="s">
+      <c r="B14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="51"/>
-    </row>
-    <row r="11" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A11" s="44"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="32"/>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33"/>
-    </row>
-    <row r="12" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="29" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="49"/>
-      <c r="AC12" s="49"/>
-      <c r="AD12" s="49"/>
-      <c r="AE12" s="49"/>
-      <c r="AF12" s="51"/>
-    </row>
-    <row r="13" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="33"/>
-    </row>
-    <row r="14" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="29" t="s">
-        <v>27</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -1814,45 +1774,45 @@
       <c r="AE14" s="29"/>
       <c r="AF14" s="30"/>
     </row>
-    <row r="15" spans="1:32" ht="21.95" customHeight="1">
+    <row r="15" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40"/>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="41"/>
-    </row>
-    <row r="16" spans="1:32" ht="21.95" customHeight="1">
+      <c r="L15" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="38"/>
+    </row>
+    <row r="16" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -1886,7 +1846,7 @@
       <c r="AE16" s="23"/>
       <c r="AF16" s="24"/>
     </row>
-    <row r="17" spans="1:32" ht="185.1" customHeight="1">
+    <row r="17" spans="1:32" ht="185.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1920,9 +1880,9 @@
       <c r="AE17" s="8"/>
       <c r="AF17" s="9"/>
     </row>
-    <row r="18" spans="1:32" ht="33" customHeight="1">
+    <row r="18" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
@@ -1956,12 +1916,12 @@
       <c r="AE18" s="26"/>
       <c r="AF18" s="27"/>
     </row>
-    <row r="19" spans="1:32" ht="21.95" customHeight="1">
+    <row r="19" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -1971,7 +1931,7 @@
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K19" s="29"/>
       <c r="L19" s="29"/>
@@ -1996,15 +1956,15 @@
       <c r="AE19" s="29"/>
       <c r="AF19" s="30"/>
     </row>
-    <row r="20" spans="1:32" ht="21.95" customHeight="1">
+    <row r="20" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="29" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
@@ -2034,7 +1994,7 @@
       <c r="AE20" s="29"/>
       <c r="AF20" s="30"/>
     </row>
-    <row r="21" spans="1:32" ht="21.95" customHeight="1">
+    <row r="21" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2068,7 +2028,7 @@
       <c r="AE21" s="20"/>
       <c r="AF21" s="21"/>
     </row>
-    <row r="22" spans="1:32" ht="21.95" customHeight="1">
+    <row r="22" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2102,7 +2062,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="15"/>
     </row>
-    <row r="23" spans="1:32" ht="21.95" customHeight="1">
+    <row r="23" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2136,7 +2096,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="15"/>
     </row>
-    <row r="24" spans="1:32" ht="21.95" customHeight="1">
+    <row r="24" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -2170,9 +2130,9 @@
       <c r="AE24" s="17"/>
       <c r="AF24" s="18"/>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2283,7 +2243,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.78740157480314965" footer="0"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -183,7 +183,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,18 +719,198 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,186 +919,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1204,11 +1204,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AF25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL13" sqref="AL13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
@@ -1222,484 +1222,484 @@
     <col min="33" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:32" ht="16.5" customHeight="1">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-    </row>
-    <row r="2" spans="1:32" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+    </row>
+    <row r="2" spans="1:32" ht="35.1" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-    </row>
-    <row r="3" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+    </row>
+    <row r="3" spans="1:32" ht="21.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="73" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="67" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="77"/>
-    </row>
-    <row r="4" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="26"/>
+    </row>
+    <row r="4" spans="1:32" ht="21.95" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="78"/>
-    </row>
-    <row r="5" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="27"/>
+    </row>
+    <row r="5" spans="1:32" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="29" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="61"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="63"/>
-    </row>
-    <row r="6" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="31"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="34"/>
+    </row>
+    <row r="6" spans="1:32" ht="21.95" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="29"/>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="29"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="30"/>
-    </row>
-    <row r="7" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="31"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="35"/>
+    </row>
+    <row r="7" spans="1:32" ht="21.95" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29" t="s">
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="29"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="29"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="30"/>
-    </row>
-    <row r="8" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="35"/>
+    </row>
+    <row r="8" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="44" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="44" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="47"/>
-    </row>
-    <row r="9" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="54"/>
-    </row>
-    <row r="10" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="41"/>
+    </row>
+    <row r="9" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="44"/>
+      <c r="AD9" s="44"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="46"/>
+    </row>
+    <row r="10" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="44" t="s">
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="44" t="s">
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="47"/>
-    </row>
-    <row r="11" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="41"/>
+    </row>
+    <row r="11" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="52"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="54"/>
-    </row>
-    <row r="12" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="K11" s="43"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="44"/>
+      <c r="AC11" s="44"/>
+      <c r="AD11" s="44"/>
+      <c r="AE11" s="44"/>
+      <c r="AF11" s="46"/>
+    </row>
+    <row r="12" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="41" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="44" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="44" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="47"/>
-    </row>
-    <row r="13" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="39"/>
+      <c r="AA12" s="39"/>
+      <c r="AB12" s="39"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="41"/>
+    </row>
+    <row r="13" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A13" s="37"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
@@ -1709,144 +1709,144 @@
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="54"/>
-    </row>
-    <row r="14" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="46"/>
+    </row>
+    <row r="14" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A14" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="29" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29" t="s">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-      <c r="AC14" s="29"/>
-      <c r="AD14" s="29"/>
-      <c r="AE14" s="29"/>
-      <c r="AF14" s="30"/>
-    </row>
-    <row r="15" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="37" t="s">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="31"/>
+      <c r="AB14" s="31"/>
+      <c r="AC14" s="31"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="31"/>
+      <c r="AF14" s="35"/>
+    </row>
+    <row r="15" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="38"/>
-    </row>
-    <row r="16" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="62"/>
+    </row>
+    <row r="16" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A16" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
-      <c r="AB16" s="23"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="24"/>
-    </row>
-    <row r="17" spans="1:32" ht="185.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="64"/>
+      <c r="AF16" s="65"/>
+    </row>
+    <row r="17" spans="1:32" ht="219.95" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1880,310 +1880,337 @@
       <c r="AE17" s="8"/>
       <c r="AF17" s="9"/>
     </row>
-    <row r="18" spans="1:32" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:32" ht="33" customHeight="1">
+      <c r="A18" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="27"/>
-    </row>
-    <row r="19" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="68"/>
+    </row>
+    <row r="19" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A19" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="29"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="29"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="29"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="29"/>
-      <c r="AF19" s="30"/>
-    </row>
-    <row r="20" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29" t="s">
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="35"/>
+    </row>
+    <row r="20" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A20" s="54"/>
+      <c r="B20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29" t="s">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="29"/>
-      <c r="AB20" s="29"/>
-      <c r="AC20" s="29"/>
-      <c r="AD20" s="29"/>
-      <c r="AE20" s="29"/>
-      <c r="AF20" s="30"/>
-    </row>
-    <row r="21" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="31"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="31"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="31"/>
+      <c r="AD20" s="31"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="35"/>
+    </row>
+    <row r="21" spans="1:32" ht="21.95" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="20"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
-      <c r="AF21" s="21"/>
-    </row>
-    <row r="22" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="72"/>
+    </row>
+    <row r="22" spans="1:32" ht="21.95" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="15"/>
-    </row>
-    <row r="23" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="74"/>
+    </row>
+    <row r="23" spans="1:32" ht="21.95" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="15"/>
-    </row>
-    <row r="24" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="73"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="74"/>
+    </row>
+    <row r="24" spans="1:32" ht="21.95" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="18"/>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="77"/>
+      <c r="AD24" s="77"/>
+      <c r="AE24" s="77"/>
+      <c r="AF24" s="78"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="12"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="75"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="75"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="75"/>
+      <c r="AB25" s="75"/>
+      <c r="AC25" s="75"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="75"/>
+      <c r="AF25" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="R3:Y4"/>
-    <mergeCell ref="Z3:AF4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:AF6"/>
+    <mergeCell ref="A25:AF25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:AF23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:AF24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:AF21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:AF22"/>
+    <mergeCell ref="A16:AF16"/>
+    <mergeCell ref="A18:AF18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:AF20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:AF14"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:U12"/>
+    <mergeCell ref="V12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="V13:AF13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="V10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:U11"/>
+    <mergeCell ref="V11:AF11"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="K7:U7"/>
@@ -2197,49 +2224,22 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="K9:U9"/>
     <mergeCell ref="V9:AF9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:U10"/>
-    <mergeCell ref="V10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:U11"/>
-    <mergeCell ref="V11:AF11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:U12"/>
-    <mergeCell ref="V12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:U13"/>
-    <mergeCell ref="V13:AF13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:AF14"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="A16:AF16"/>
-    <mergeCell ref="A18:AF18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:AF20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:AF21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:AF22"/>
-    <mergeCell ref="A25:AF25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:AF23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:AF24"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:AF6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="R3:Y4"/>
+    <mergeCell ref="Z3:AF4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.78740157480314965" footer="0"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\PycharmProjects\ccp_reportcard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kim\Documents\PythonProjects\ccp_reportcard\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -719,6 +719,162 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -734,9 +890,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -766,159 +919,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1223,483 +1223,483 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="16.5" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="13" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
     </row>
     <row r="2" spans="1:32" ht="35.1" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
     </row>
     <row r="3" spans="1:32" ht="21.95" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="22" t="s">
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="15" t="s">
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="26"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="77"/>
     </row>
     <row r="4" spans="1:32" ht="21.95" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="27"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="78"/>
     </row>
     <row r="5" spans="1:32" ht="21.95" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="34"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+      <c r="W5" s="29"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="63"/>
     </row>
     <row r="6" spans="1:32" ht="21.95" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="35"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="29"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="30"/>
     </row>
     <row r="7" spans="1:32" ht="21.95" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31" t="s">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="35"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="30"/>
     </row>
     <row r="8" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="38" t="s">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="38" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="39"/>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="39"/>
-      <c r="Z8" s="39"/>
-      <c r="AA8" s="39"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="39"/>
-      <c r="AD8" s="39"/>
-      <c r="AE8" s="39"/>
-      <c r="AF8" s="41"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="45"/>
+      <c r="Y8" s="45"/>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="47"/>
     </row>
     <row r="9" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="44"/>
-      <c r="Y9" s="44"/>
-      <c r="Z9" s="44"/>
-      <c r="AA9" s="44"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
-      <c r="AF9" s="46"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="54"/>
     </row>
     <row r="10" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="38" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="38" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="41"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="45"/>
+      <c r="Y10" s="45"/>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="45"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45"/>
+      <c r="AE10" s="45"/>
+      <c r="AF10" s="47"/>
     </row>
     <row r="11" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
       <c r="E11" s="48"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="49"/>
       <c r="J11" s="50"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="44"/>
-      <c r="Y11" s="44"/>
-      <c r="Z11" s="44"/>
-      <c r="AA11" s="44"/>
-      <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
-      <c r="AF11" s="46"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="54"/>
     </row>
     <row r="12" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="38" t="s">
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="38" t="s">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="41"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="45"/>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="45"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="45"/>
+      <c r="AE12" s="45"/>
+      <c r="AF12" s="47"/>
     </row>
     <row r="13" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
@@ -1709,144 +1709,144 @@
       <c r="H13" s="49"/>
       <c r="I13" s="49"/>
       <c r="J13" s="50"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="46"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="54"/>
     </row>
     <row r="14" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="31" t="s">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31" t="s">
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="35"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
     </row>
     <row r="15" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A15" s="54"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="61" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="62"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="38"/>
     </row>
     <row r="16" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
-      <c r="AA16" s="64"/>
-      <c r="AB16" s="64"/>
-      <c r="AC16" s="64"/>
-      <c r="AD16" s="64"/>
-      <c r="AE16" s="64"/>
-      <c r="AF16" s="65"/>
-    </row>
-    <row r="17" spans="1:32" ht="219.95" customHeight="1">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="17" spans="1:32" ht="210" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1881,336 +1881,309 @@
       <c r="AF17" s="9"/>
     </row>
     <row r="18" spans="1:32" ht="33" customHeight="1">
-      <c r="A18" s="66" t="s">
+      <c r="A18" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="67"/>
-      <c r="O18" s="67"/>
-      <c r="P18" s="67"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="67"/>
-      <c r="U18" s="67"/>
-      <c r="V18" s="67"/>
-      <c r="W18" s="67"/>
-      <c r="X18" s="67"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
-      <c r="AA18" s="67"/>
-      <c r="AB18" s="67"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="68"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="27"/>
     </row>
     <row r="19" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="35"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="30"/>
     </row>
     <row r="20" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="35"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="30"/>
     </row>
     <row r="21" spans="1:32" ht="21.95" customHeight="1">
       <c r="A21" s="10"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="71"/>
-      <c r="AE21" s="71"/>
-      <c r="AF21" s="72"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="21"/>
     </row>
     <row r="22" spans="1:32" ht="21.95" customHeight="1">
       <c r="A22" s="10"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="73"/>
-      <c r="AC22" s="73"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="73"/>
-      <c r="AF22" s="74"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="15"/>
     </row>
     <row r="23" spans="1:32" ht="21.95" customHeight="1">
       <c r="A23" s="10"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="73"/>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="73"/>
-      <c r="AF23" s="74"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="15"/>
     </row>
     <row r="24" spans="1:32" ht="21.95" customHeight="1">
       <c r="A24" s="11"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="78"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="18"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
-      <c r="T25" s="75"/>
-      <c r="U25" s="75"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
-      <c r="AA25" s="75"/>
-      <c r="AB25" s="75"/>
-      <c r="AC25" s="75"/>
-      <c r="AD25" s="75"/>
-      <c r="AE25" s="75"/>
-      <c r="AF25" s="75"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="A25:AF25"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:AF23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:AF24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:AF21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:AF22"/>
-    <mergeCell ref="A16:AF16"/>
-    <mergeCell ref="A18:AF18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:AF20"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:K15"/>
-    <mergeCell ref="L14:AF14"/>
-    <mergeCell ref="L15:AF15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:U12"/>
-    <mergeCell ref="V12:AF12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:U13"/>
-    <mergeCell ref="V13:AF13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:U10"/>
-    <mergeCell ref="V10:AF10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:U11"/>
-    <mergeCell ref="V11:AF11"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AF1"/>
+    <mergeCell ref="A2:AF2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:F4"/>
+    <mergeCell ref="G3:H4"/>
+    <mergeCell ref="I3:K4"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="N3:Q4"/>
+    <mergeCell ref="R3:Y4"/>
+    <mergeCell ref="Z3:AF4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:Y5"/>
+    <mergeCell ref="Z5:AF5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="K6:AF6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="K7:U7"/>
@@ -2224,22 +2197,49 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="K9:U9"/>
     <mergeCell ref="V9:AF9"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:Y5"/>
-    <mergeCell ref="Z5:AF5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="K6:AF6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AF1"/>
-    <mergeCell ref="A2:AF2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:F4"/>
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="I3:K4"/>
-    <mergeCell ref="L3:M4"/>
-    <mergeCell ref="N3:Q4"/>
-    <mergeCell ref="R3:Y4"/>
-    <mergeCell ref="Z3:AF4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="V10:AF10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:U11"/>
+    <mergeCell ref="V11:AF11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:U12"/>
+    <mergeCell ref="V12:AF12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:U13"/>
+    <mergeCell ref="V13:AF13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:K15"/>
+    <mergeCell ref="L14:AF14"/>
+    <mergeCell ref="L15:AF15"/>
+    <mergeCell ref="A16:AF16"/>
+    <mergeCell ref="A18:AF18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:AF20"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:AF21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:AF22"/>
+    <mergeCell ref="A25:AF25"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:AF23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:AF24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.98425196850393704" bottom="0.74803149606299213" header="0.78740157480314965" footer="0"/>
